--- a/data/case1/15/Qlm1_14.xlsx
+++ b/data/case1/15/Qlm1_14.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.27548403307216063</v>
+        <v>-0.24418859991079245</v>
       </c>
       <c r="B1" s="0">
-        <v>0.27522599173489937</v>
+        <v>0.24399259722358835</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.25312625882265838</v>
+        <v>-0.22188726358183253</v>
       </c>
       <c r="B2" s="0">
-        <v>0.25202527229703442</v>
+        <v>0.22108492491182918</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.10935830630875998</v>
+        <v>-0.098779060104366323</v>
       </c>
       <c r="B3" s="0">
-        <v>0.10904854254961549</v>
+        <v>0.098507057833987943</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.10104854268547392</v>
+        <v>-0.09050705786598634</v>
       </c>
       <c r="B4" s="0">
-        <v>0.10059862353267768</v>
+        <v>0.090063697668400167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.09759862361846583</v>
+        <v>-0.087063697687487895</v>
       </c>
       <c r="B5" s="0">
-        <v>0.096066002469423317</v>
+        <v>0.085559366065469433</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.016714695846534511</v>
+        <v>-0.0031664588063495813</v>
       </c>
       <c r="B6" s="0">
-        <v>0.016537295091163529</v>
+        <v>0.0030796630020866189</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0065372952813524954</v>
+        <v>0.0069203369539381221</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0065072362683005203</v>
+        <v>-0.0069315191452976599</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0034927635404593538</v>
+        <v>0.016931519101543113</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0035211377469051008</v>
+        <v>-0.016947188482680176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0055211376504020748</v>
+        <v>0.018947188463324771</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0055380621237404171</v>
+        <v>-0.018964448666509703</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0075380620283542754</v>
+        <v>0.048271154475017397</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.007537474389426535</v>
+        <v>-0.048284295617625261</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0077015673089730896</v>
+        <v>0.051284295596730978</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0076970175914405914</v>
+        <v>-0.051315246821059368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0041970177048953339</v>
+        <v>-0.0079217571716823088</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0041651327951068851</v>
+        <v>0.0078865632319100598</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0006651329100781922</v>
+        <v>-0.004386563253961917</v>
       </c>
       <c r="B13" s="0">
-        <v>0.00065679515269057021</v>
+        <v>0.0043766379193259652</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0073432046792678562</v>
+        <v>0.003623362045256151</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0073441949588133326</v>
+        <v>-0.003623683997929561</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0083441948737723592</v>
+        <v>-0.0080510246295206755</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0083465314609476593</v>
+        <v>0.0080331244245721578</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.010346531365265754</v>
+        <v>-0.0060331244425957387</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.010370646662085203</v>
+        <v>0.006003449434534236</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.012370646569494603</v>
+        <v>-0.0040034494529974651</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.012385430506125061</v>
+        <v>0.0039999999755169213</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016099732987559179</v>
+        <v>-0.01610533366048017</v>
       </c>
       <c r="B18" s="0">
-        <v>0.0160902369957725</v>
+        <v>0.016091653254452609</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012090237047650554</v>
+        <v>-0.012091653267365832</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012015469647080224</v>
+        <v>0.01201692312626701</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080154697030145883</v>
+        <v>-0.0080169231401221452</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080054566955087836</v>
+        <v>0.0080056490569671013</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.004005456752054215</v>
+        <v>-0.004005649070971451</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999429571886</v>
+        <v>0.0039999999858562063</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.10345243696430373</v>
+        <v>-0.118305864825901</v>
       </c>
       <c r="B22" s="0">
-        <v>0.10293000008941178</v>
+        <v>0.11760459744187912</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.097930000191943201</v>
+        <v>-0.040498148239905163</v>
       </c>
       <c r="B23" s="0">
-        <v>0.096869935876584101</v>
+        <v>0.040098903708696731</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.076869936177544673</v>
+        <v>-0.020098903778836608</v>
       </c>
       <c r="B24" s="0">
-        <v>0.076347992999036052</v>
+        <v>0.019999999928890233</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.077351306718069779</v>
+        <v>-0.097215335362877298</v>
       </c>
       <c r="B25" s="0">
-        <v>0.077266829892987943</v>
+        <v>0.097092006843778833</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.07476682999638129</v>
+        <v>-0.094592006866623279</v>
       </c>
       <c r="B26" s="0">
-        <v>0.07465850759765047</v>
+        <v>0.094433589666856221</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.07215850770562815</v>
+        <v>-0.091933589690978756</v>
       </c>
       <c r="B27" s="0">
-        <v>0.071518937069519062</v>
+        <v>0.090998140974291708</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.08899234673745049</v>
+        <v>-0.088998141002572417</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088352959682340249</v>
+        <v>0.088357613803444757</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081352959883143505</v>
+        <v>-0.081357613850784993</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081168305757147508</v>
+        <v>0.081171701129505003</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021168306589567365</v>
+        <v>-0.02117170133493218</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021021072574849864</v>
+        <v>0.021023995994000177</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014021072789530464</v>
+        <v>-0.014023996044921105</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000575935389392</v>
+        <v>0.01400141659699905</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040005761863746159</v>
+        <v>-0.0040014166570099263</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999998193707142</v>
+        <v>0.0039999999575659473</v>
       </c>
     </row>
   </sheetData>
